--- a/software-master/EBManagement/doc/log(1).xlsx
+++ b/software-master/EBManagement/doc/log(1).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="10170" windowHeight="3375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="10170" windowHeight="3375"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,12 @@
     <sheet name="张国豪" sheetId="6" r:id="rId6"/>
     <sheet name="袁佳敏" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:I10"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>提交时间</t>
   </si>
@@ -40,12 +39,49 @@
   <si>
     <t>学习数据库的连接及阅读书本第二十章单元测试</t>
   </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>019.4.10-9:20</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学习了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>jdbc</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +112,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -97,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -113,6 +162,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -413,20 +465,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="36.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -438,7 +490,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="27.75">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -446,56 +498,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,17 +545,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,17 +569,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,17 +593,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,17 +617,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/software-master/EBManagement/doc/log(1).xlsx
+++ b/software-master/EBManagement/doc/log(1).xlsx
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -512,6 +512,11 @@
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
